--- a/WS/Csv/field_object.xlsx
+++ b/WS/Csv/field_object.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\translate\New Unity Project\Assets\myProject01\trunk\WS\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D176A7-13EC-42EC-9968-F2310DF8E2DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C51078-8C8A-4A16-8CD3-C3DDAF8CADF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="8700" xr2:uid="{CB4FCD95-4B92-402F-AFA6-29429F666619}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,60 @@
   <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 普通的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48FF00</t>
+  </si>
+  <si>
+    <t>706054</t>
   </si>
 </sst>
 </file>
@@ -455,15 +509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75707A0-2521-453D-96D9-73A55333D8AD}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -499,6 +555,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -507,6 +566,12 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -516,6 +581,9 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -524,6 +592,52 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/WS/Csv/field_object.xlsx
+++ b/WS/Csv/field_object.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\translate\New Unity Project\Assets\myProject01\trunk\WS\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C51078-8C8A-4A16-8CD3-C3DDAF8CADF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AB0B0D-31AC-44B6-9827-F28EE1A4202F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="8700" xr2:uid="{CB4FCD95-4B92-402F-AFA6-29429F666619}"/>
+    <workbookView xWindow="30270" yWindow="1260" windowWidth="23625" windowHeight="14250" xr2:uid="{CB4FCD95-4B92-402F-AFA6-29429F666619}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 普通的树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通的石头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,14 @@
   </si>
   <si>
     <t>706054</t>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -193,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,20 +513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75707A0-2521-453D-96D9-73A55333D8AD}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,22 +538,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -556,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,61 +590,61 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
